--- a/biology/Zoologie/Dichrorampha/Dichrorampha.xlsx
+++ b/biology/Zoologie/Dichrorampha/Dichrorampha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dichrorampha est un genre de lépidoptères (papillons) appartenant à la sous-famille des Olethreutinae dans la famille des Tortricidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dichrorampha est un genre de lépidoptères (papillons) appartenant à la sous-famille des Olethreutinae dans la famille des Tortricidae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Dichrorampha abhasica Danilevsky, in Danilevsky &amp; Kuznetsov, 1968
@@ -636,7 +650,7 @@
 Dichrorampha senectana Guenee, 1845
 Dichrorampha sequana (Hubner, [1796-1799])
 Dichrorampha sericana (Kennel, 1901)
-Dichrorampha simpliciana (Haworth, [1811])
+Dichrorampha simpliciana (Haworth, )
 Dichrorampha simulana (Clemens, 1860)
 Dichrorampha sinensis Kuznetzov, 1971
 Dichrorampha striatimacula Kuznetzov, 1972
@@ -685,7 +699,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Amaurosetia Stephens, 1835
 Balbis Walsingham, 1897
